--- a/biology/Zoologie/Black_Rock_(poule)/Black_Rock_(poule).xlsx
+++ b/biology/Zoologie/Black_Rock_(poule)/Black_Rock_(poule).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Black Rock est une variété de poule domestique métis "hybride F1" Américaine. On l'appelle aussi Rhode Rock ou Black Star.
@@ -513,16 +525,123 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La Black Rock est une poule sociable reconnue pour sa ponte importante. Elle est facile à élever en enclos restreint.
-Elle commence à pondre à l'âge de 21 semaines et pond 280 œufs à 300 œufs par an la première année[1]. C'est une poule très robuste. Très rustique, elle est peu sensible au pou rouge[2].
-Sexage
-La Black Rock est une variété dite "Black Sex Link" ou "Rock Red"[3], ce qui signifie qu'on peut sexer les poussins à la naissance. Les deux sexes éclosent de couleur noire mais les mâles ont un point blanc sur la tête alors que les poules ont du rouge dans les plumes du cou.
-Origine
-Créée aux États-Unis par le "Arbor Acres breeders of America", cette race est issue du croisement de Rhode-Island (mâle) et de Plymouth Rock barrée (femelle).
-Caractéristiques
-Crête : simple
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Black Rock est une poule sociable reconnue pour sa ponte importante. Elle est facile à élever en enclos restreint.
+Elle commence à pondre à l'âge de 21 semaines et pond 280 œufs à 300 œufs par an la première année. C'est une poule très robuste. Très rustique, elle est peu sensible au pou rouge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Black_Rock_(poule)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Black_Rock_(poule)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sexage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Black Rock est une variété dite "Black Sex Link" ou "Rock Red", ce qui signifie qu'on peut sexer les poussins à la naissance. Les deux sexes éclosent de couleur noire mais les mâles ont un point blanc sur la tête alors que les poules ont du rouge dans les plumes du cou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Black_Rock_(poule)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Black_Rock_(poule)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée aux États-Unis par le "Arbor Acres breeders of America", cette race est issue du croisement de Rhode-Island (mâle) et de Plymouth Rock barrée (femelle).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Black_Rock_(poule)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Black_Rock_(poule)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Crête : simple
 Oreillons : rouges
 Variétés de plumage : camail roux/cuivré et plumage noir à reflets verts.
 Masse: Poule :  2 à 2,5 kg
